--- a/biology/Botanique/Rossese_di_Dolceacqua/Rossese_di_Dolceacqua.xlsx
+++ b/biology/Botanique/Rossese_di_Dolceacqua/Rossese_di_Dolceacqua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Rossese di Dolceacqua est un vin italien sec de la région de Ligurie doté d'une appellation DOC depuis le 28 janvier 1972. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en  province d'Imperia dans les communes d’Apricale, Bajardo, Camporosso, Castelvittorio, Dolceacqua, Isolabona, Perinaldo, Pigna, Rocchetta Nervina, San Biagio della Cima, Soldano ainsi que les communes de Vallecrosia, Ventimiglia et Vallebona. Les vignobles s'étagent de depuis le fond de la vallée de la Nervia à 400 mètres jusqu’à 600 mètres.
 Déjà le pape Paul III admirait la qualité de ce vin.
@@ -545,7 +559,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis.
 odeur : vineux, typique
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,7 +651,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Province, saison, volume en hectolitres :
 Imperia  (1990/91)  1300,74
@@ -668,7 +690,9 @@
           <t>Producteurs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Rossese di Dolceacqua Du Nemu</t>
         </is>
